--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_8_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_8_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.02007232411151172, 12.993066996618758]</t>
+          <t>[0.1912016322809631, 12.821937688449307]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04932471867304167</v>
+        <v>0.04372556087122881</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04932471867304167</v>
+        <v>0.04372556087122881</v>
       </c>
       <c r="P2" t="n">
         <v>-1.446579199851156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8302636518826967, -0.06289474781961513]</t>
+          <t>[-2.7925268031909276, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04084676323862246</v>
+        <v>0.03575428185013729</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04084676323862246</v>
+        <v>0.03575428185013729</v>
       </c>
       <c r="T2" t="n">
         <v>8.795817230901978</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[4.969095537669751, 12.622538924134204]</t>
+          <t>[4.97034028870712, 12.621294173096835]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.123964667328671e-05</v>
+        <v>3.10863189627586e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.123964667328671e-05</v>
+        <v>3.10863189627586e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.956056056056195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2589589589589627</v>
+        <v>0.4143343343343417</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.65315315315343</v>
+        <v>11.49777777777805</v>
       </c>
     </row>
     <row r="3">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.7020062280945218, 13.463056083963766]</t>
+          <t>[-1.0993139906444487, 13.860363846513692]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07627519575825281</v>
+        <v>0.09265477698908731</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07627519575825281</v>
+        <v>0.09265477698908731</v>
       </c>
       <c r="P3" t="n">
         <v>-1.823947686768848</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.489759734695848, 13.832757494991974]</t>
+          <t>[5.489874854514014, 13.832642375173808]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.784092044172404e-05</v>
+        <v>2.78291921482765e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.784092044172404e-05</v>
+        <v>2.78291921482765e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.509809809809983</v>
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8040541638875247, 14.613471025731926]</t>
+          <t>[-1.9189362516150794, 14.72835311345948]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1230813315557089</v>
+        <v>0.1282015086036283</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1230813315557089</v>
+        <v>0.1282015086036283</v>
       </c>
       <c r="P4" t="n">
         <v>-2.515789912784619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.641658879419509, 0.6100790538502707]</t>
+          <t>[-5.522158858562238, 0.49057903299299976]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1120029023203168</v>
+        <v>0.09882671305278001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1120029023203168</v>
+        <v>0.09882671305278001</v>
       </c>
       <c r="T4" t="n">
         <v>9.471494741162235</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.262862517424873, 13.680126964899598]</t>
+          <t>[5.259193296356727, 13.683796185967743]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.280774520371011e-05</v>
+        <v>4.335989771764304e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.280774520371011e-05</v>
+        <v>4.335989771764304e-05</v>
       </c>
       <c r="X4" t="n">
         <v>10.3583583583586</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.511901901901963</v>
+        <v>-2.019879879879923</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.22861861861917</v>
+        <v>22.73659659659712</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.6630078575405793, 13.702563964431592]</t>
+          <t>[-0.6925043185537447, 13.732060425444757]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07415446627706501</v>
+        <v>0.07530376671966543</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07415446627706501</v>
+        <v>0.07530376671966543</v>
       </c>
       <c r="P5" t="n">
         <v>3.100711067507043</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 4.622763964741738]</t>
+          <t>[1.603816069400195, 4.597606065613891]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.000168986912534308</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000168986912534308</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="T5" t="n">
         <v>9.461220484163643</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.226786521627842, 13.695654446699445]</t>
+          <t>[5.231407146176435, 13.691033822150851]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.756667389904656e-05</v>
+        <v>4.68150624550745e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.756667389904656e-05</v>
+        <v>4.68150624550745e-05</v>
       </c>
       <c r="X5" t="n">
         <v>13.10332332332363</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.836516516516673</v>
+        <v>6.940100100100263</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.37013013013058</v>
+        <v>19.26654654654699</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1192567028664708, 14.005615514588625]</t>
+          <t>[-0.8069782563330623, 13.693337068055216]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09303790323512029</v>
+        <v>0.0801963029959063</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09303790323512029</v>
+        <v>0.0801963029959063</v>
       </c>
       <c r="P6" t="n">
         <v>3.037816319687427</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.4906055233248874, 4.585027116049968]</t>
+          <t>[1.4277107755052714, 4.647921863869584]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0002686470243651318</v>
+        <v>0.0004319077789900483</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0002686470243651318</v>
+        <v>0.0004319077789900483</v>
       </c>
       <c r="T6" t="n">
         <v>9.477579668845362</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.263772543634444, 13.69138679405628]</t>
+          <t>[5.259680032142127, 13.695479305548597]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.317870281123071e-05</v>
+        <v>4.379903471041224e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.317870281123071e-05</v>
+        <v>4.379903471041224e-05</v>
       </c>
       <c r="X6" t="n">
         <v>13.3622822822826</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.991891891892059</v>
+        <v>6.732932932933092</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.73267267267313</v>
+        <v>19.9916316316321</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.5829973272548052, 14.328449806513978]</t>
+          <t>[-1.4760338678708855, 14.221486347130059]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1136612592963979</v>
+        <v>0.108956252782286</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1136612592963979</v>
+        <v>0.108956252782286</v>
       </c>
       <c r="P7" t="n">
         <v>2.35855304323558</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 5.471843060306546]</t>
+          <t>[-0.767315923399309, 5.484422009870469]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1340491254038654</v>
+        <v>0.1355831019938456</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1340491254038654</v>
+        <v>0.1355831019938456</v>
       </c>
       <c r="T7" t="n">
         <v>9.72022251892658</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.513031860055081, 13.927413177798078]</t>
+          <t>[5.511785641543515, 13.928659396309644]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.889382284432251e-05</v>
+        <v>2.902433830431761e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.889382284432251e-05</v>
+        <v>2.902433830431761e-05</v>
       </c>
       <c r="X7" t="n">
         <v>16.15903903903942</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.34057057057065</v>
+        <v>3.288778778778855</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.97750750750819</v>
+        <v>29.02929929929998</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.3411777876571698, 13.758969369784484]</t>
+          <t>[-0.3951469098465026, 13.812938491973817]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06164822891866018</v>
+        <v>0.06357395869666771</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06164822891866018</v>
+        <v>0.06357395869666771</v>
       </c>
       <c r="P8" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.4465527095192705, 3.4655006048608126]</t>
+          <t>[0.47171060864711567, 3.4403427057329674]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01225402961251221</v>
+        <v>0.01095033289426883</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01225402961251221</v>
+        <v>0.01095033289426883</v>
       </c>
       <c r="T8" t="n">
         <v>8.904971818027311</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.089239884370777, 12.720703751683846]</t>
+          <t>[5.092489021505877, 12.717454614548746]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.476588657174261e-05</v>
+        <v>2.444259258016501e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.476588657174261e-05</v>
+        <v>2.444259258016501e-05</v>
       </c>
       <c r="X8" t="n">
         <v>17.81637637637679</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.60136136136164</v>
+        <v>11.70494494494522</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.03139139139195</v>
+        <v>23.92780780780837</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.28711149038292305, 12.634742093526317]</t>
+          <t>[-0.3741280593200056, 12.7217586624634]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06061588213709079</v>
+        <v>0.06398367038865316</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06061588213709079</v>
+        <v>0.06398367038865316</v>
       </c>
       <c r="P9" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 3.4151848066051205]</t>
+          <t>[0.42139481039142357, 3.4906585039886595]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009736756634994848</v>
+        <v>0.0136487085209076</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009736756634994848</v>
+        <v>0.0136487085209076</v>
       </c>
       <c r="T9" t="n">
         <v>6.891913780464392</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[3.407688749938403, 10.37613881099038]</t>
+          <t>[3.4110932778948477, 10.372734283033935]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0.0002451950666246816</v>
+        <v>0.0002422441177527546</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0002451950666246816</v>
+        <v>0.0002422441177527546</v>
       </c>
       <c r="X9" t="n">
         <v>17.81637637637679</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.80852852852881</v>
+        <v>11.49777777777805</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.82422422422478</v>
+        <v>24.13497497497554</v>
       </c>
     </row>
     <row r="10">
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.5190758498209682, 14.021255209426844]</t>
+          <t>[-0.7199709953569808, 14.222150354962857]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.06795503139706915</v>
+        <v>0.07541308875262165</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06795503139706915</v>
+        <v>0.07541308875262165</v>
       </c>
       <c r="P10" t="n">
         <v>1.352237078121733</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.14465791998511524, 2.849132076228581]</t>
+          <t>[-0.19497371824080822, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.07549757836120996</v>
+        <v>0.0851537407081111</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07549757836120996</v>
+        <v>0.0851537407081111</v>
       </c>
       <c r="T10" t="n">
         <v>8.712544572130209</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[4.608167995244548, 12.81692114901587]</t>
+          <t>[4.610227996328369, 12.81486114793205]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.795896511000102e-05</v>
+        <v>9.72909759797691e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>9.795896511000102e-05</v>
+        <v>9.72909759797691e-05</v>
       </c>
       <c r="X10" t="n">
         <v>20.30238238238286</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.13915915915949</v>
+        <v>13.93199199199232</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.46560560560622</v>
+        <v>26.6727727727734</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[1.2001175944350706, 16.381341382645203]</t>
+          <t>[1.3805700443853723, 16.2008889326949]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.02420384725396674</v>
+        <v>0.02113010238668411</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02420384725396674</v>
+        <v>0.02113010238668411</v>
       </c>
       <c r="P11" t="n">
         <v>0.5975001042863477</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.2641579408423853, 1.4591581494150807]</t>
+          <t>[-0.20755266780472947, 1.4025528763774249]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1693722695404491</v>
+        <v>0.1419357197691762</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1693722695404491</v>
+        <v>0.1419357197691762</v>
       </c>
       <c r="T11" t="n">
         <v>9.960735567419059</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.005023126841544, 13.916448007996575]</t>
+          <t>[6.008279532594768, 13.91319160224335]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.244123312766249e-06</v>
+        <v>7.143718056434878e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.244123312766249e-06</v>
+        <v>7.143718056434878e-06</v>
       </c>
       <c r="X11" t="n">
         <v>23.40988988989043</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.86215215215261</v>
+        <v>20.09521521521568</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.95762762762826</v>
+        <v>26.72456456456518</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.220383254241332, 12.66589481542177]</t>
+          <t>[-2.476004497284068, 12.921516058464507]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1644563965042976</v>
+        <v>0.1786195058833675</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1644563965042976</v>
+        <v>0.1786195058833675</v>
       </c>
       <c r="P12" t="n">
         <v>0.3585000625718076</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.6164215092960044, 3.3334216344396195]</t>
+          <t>[-2.7736583788450435, 3.4906585039886586]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8093295814568753</v>
+        <v>0.8187248789934645</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8093295814568753</v>
+        <v>0.8187248789934645</v>
       </c>
       <c r="T12" t="n">
         <v>8.537788289071436</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.447702887809061, 12.62787369033381]</t>
+          <t>[4.445485625523846, 12.630090952619026]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0.0001227980576521404</v>
+        <v>0.0001236875072767596</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0001227980576521404</v>
+        <v>0.0001236875072767596</v>
       </c>
       <c r="X12" t="n">
         <v>21.15963963963971</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.53489489489493</v>
+        <v>9.973333333333366</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.78438438438448</v>
+        <v>32.34594594594605</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.7131013359493465, 13.989004692526525]</t>
+          <t>[-0.16612312703337828, 13.442026483610556]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.07561258497876011</v>
+        <v>0.05561431441904729</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07561258497876011</v>
+        <v>0.05561431441904729</v>
       </c>
       <c r="P13" t="n">
         <v>0.3836579616996545</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, 2.0629477284833877]</t>
+          <t>[-1.1446844103170015, 1.9120003337163105]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6476236465242398</v>
+        <v>0.6156066229928951</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6476236465242398</v>
+        <v>0.6156066229928951</v>
       </c>
       <c r="T13" t="n">
         <v>9.277011252994757</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.3174493385178545, 13.236573167471661]</t>
+          <t>[5.3148709064602215, 13.239151599529293]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.330686855067654e-05</v>
+        <v>2.354303029150628e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.330686855067654e-05</v>
+        <v>2.354303029150628e-05</v>
       </c>
       <c r="X13" t="n">
         <v>21.06978978978985</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07231231231236</v>
+        <v>15.61141141141146</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.06726726726735</v>
+        <v>26.52816816816825</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.6497487041454955, 16.526158700789203]</t>
+          <t>[-0.47941862656526, 16.355828623208968]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06918124566271633</v>
+        <v>0.0639341405519267</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06918124566271633</v>
+        <v>0.0639341405519267</v>
       </c>
       <c r="P14" t="n">
         <v>0.823921196436963</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.251631971942235, 3.899474364816161]</t>
+          <t>[-2.2705003962881176, 3.9183427891620437]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5921567186533507</v>
+        <v>0.5944094201815537</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5921567186533507</v>
+        <v>0.5944094201815537</v>
       </c>
       <c r="T14" t="n">
         <v>10.92237480812066</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.566460912412948, 15.278288703828368]</t>
+          <t>[6.564110989370478, 15.280638626870838]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.778341712505465e-06</v>
+        <v>7.849340683874217e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>7.778341712505465e-06</v>
+        <v>7.849340683874217e-06</v>
       </c>
       <c r="X14" t="n">
         <v>19.49741741741748</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.513273273273297</v>
+        <v>8.445885885885914</v>
       </c>
       <c r="Z14" t="n">
-        <v>30.48156156156166</v>
+        <v>30.54894894894904</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.2108828306727375, 14.50852574297312]</t>
+          <t>[-0.34596936915776233, 14.643612281458145]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.05664236114819543</v>
+        <v>0.06106379566448394</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05664236114819543</v>
+        <v>0.06106379566448394</v>
       </c>
       <c r="P15" t="n">
         <v>1.415131825941348</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.08176317216550011, 2.912026824048196]</t>
+          <t>[-0.06918422260157708, 2.899447874484273]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06330429456075826</v>
+        <v>0.06118093329988983</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06330429456075826</v>
+        <v>0.06118093329988983</v>
       </c>
       <c r="T15" t="n">
         <v>9.144313436907229</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.980121409993781, 13.308505463820676]</t>
+          <t>[4.979105169123802, 13.309521704690656]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.107477660566296e-05</v>
+        <v>6.128749666189925e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>6.107477660566296e-05</v>
+        <v>6.128749666189925e-05</v>
       </c>
       <c r="X15" t="n">
         <v>17.385945945946</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.03987987987992</v>
+        <v>12.08480480480484</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.73201201201208</v>
+        <v>22.68708708708716</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_8_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_8_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.1912016322809631, 12.821937688449307]</t>
+          <t>[0.021340204856338474, 12.991799115873931]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04372556087122881</v>
+        <v>0.04928219143615231</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04372556087122881</v>
+        <v>0.04928219143615231</v>
       </c>
       <c r="P2" t="n">
         <v>-1.446579199851156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.7925268031909276, -0.1006315965113842]</t>
+          <t>[-2.767368904063081, -0.1257894956392307]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03575428185013729</v>
+        <v>0.03253779532548884</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03575428185013729</v>
+        <v>0.03253779532548884</v>
       </c>
       <c r="T2" t="n">
         <v>8.795817230901978</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[4.97034028870712, 12.621294173096835]</t>
+          <t>[4.969740892655049, 12.621893569148906]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.10863189627586e-05</v>
+        <v>3.116007224801542e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>3.10863189627586e-05</v>
+        <v>3.116007224801542e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.956056056056195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4143343343343417</v>
+        <v>0.5179179179179281</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.49777777777805</v>
+        <v>11.39419419419446</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.0993139906444487, 13.860363846513692]</t>
+          <t>[-1.1112993572997585, 13.872349213169002]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09265477698908731</v>
+        <v>0.09316175440516905</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09265477698908731</v>
+        <v>0.09316175440516905</v>
       </c>
       <c r="P3" t="n">
         <v>-1.823947686768848</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.5221058778984657, -0.12578949563923114]</t>
+          <t>[-3.5095269283345427, -0.13836844520315417]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03586778989526995</v>
+        <v>0.03457281016937874</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03586778989526995</v>
+        <v>0.03457281016937874</v>
       </c>
       <c r="T3" t="n">
         <v>9.661258614843911</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.489874854514014, 13.832642375173808]</t>
+          <t>[5.490652209752216, 13.831865019935606]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.78291921482765e-05</v>
+        <v>2.775010596534067e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.78291921482765e-05</v>
+        <v>2.775010596534067e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.509809809809983</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5179179179179307</v>
+        <v>0.5697097097097235</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.50170170170204</v>
+        <v>14.44990990991024</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.9189362516150794, 14.72835311345948]</t>
+          <t>[-1.5716738752911343, 14.381090737135535]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1282015086036283</v>
+        <v>0.1128154230502652</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1282015086036283</v>
+        <v>0.1128154230502652</v>
       </c>
       <c r="P4" t="n">
         <v>-2.515789912784619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.522158858562238, 0.49057903299299976]</t>
+          <t>[-5.597632555945777, 0.5660527303765388]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.09882671305278001</v>
+        <v>0.1071112441997792</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09882671305278001</v>
+        <v>0.1071112441997792</v>
       </c>
       <c r="T4" t="n">
         <v>9.471494741162235</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.259193296356727, 13.683796185967743]</t>
+          <t>[5.259553441647192, 13.683436040677279]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.335989771764304e-05</v>
+        <v>4.330543765762584e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.335989771764304e-05</v>
+        <v>4.330543765762584e-05</v>
       </c>
       <c r="X4" t="n">
         <v>10.3583583583586</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.019879879879923</v>
+        <v>-2.330630630630685</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.73659659659712</v>
+        <v>23.04734734734789</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.6925043185537447, 13.732060425444757]</t>
+          <t>[-0.8516645336105313, 13.891220640501544]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07530376671966543</v>
+        <v>0.0815965306328863</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07530376671966543</v>
+        <v>0.0815965306328863</v>
       </c>
       <c r="P5" t="n">
         <v>3.100711067507043</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 4.597606065613891]</t>
+          <t>[1.566079220708426, 4.63534291430566]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0001359863332710542</v>
+        <v>0.0001877864655668304</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001359863332710542</v>
+        <v>0.0001877864655668304</v>
       </c>
       <c r="T5" t="n">
         <v>9.461220484163643</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.231407146176435, 13.691033822150851]</t>
+          <t>[5.229678696157208, 13.692762272170079]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.68150624550745e-05</v>
+        <v>4.709503992983421e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.68150624550745e-05</v>
+        <v>4.709503992983421e-05</v>
       </c>
       <c r="X5" t="n">
         <v>13.10332332332363</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.940100100100263</v>
+        <v>6.784724724724884</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.26654654654699</v>
+        <v>19.42192192192237</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.8069782563330623, 13.693337068055216]</t>
+          <t>[-0.943298890435015, 13.829657702157169]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0801963029959063</v>
+        <v>0.08573927601193465</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0801963029959063</v>
+        <v>0.08573927601193465</v>
       </c>
       <c r="P6" t="n">
         <v>3.037816319687427</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.4277107755052714, 4.647921863869584]</t>
+          <t>[1.4402897250691953, 4.63534291430566]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0004319077789900483</v>
+        <v>0.000394190877412548</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0004319077789900483</v>
+        <v>0.000394190877412548</v>
       </c>
       <c r="T6" t="n">
         <v>9.477579668845362</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.259680032142127, 13.695479305548597]</t>
+          <t>[5.262826840665959, 13.692332497024765]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.379903471041224e-05</v>
+        <v>4.332138723261991e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.379903471041224e-05</v>
+        <v>4.332138723261991e-05</v>
       </c>
       <c r="X6" t="n">
         <v>13.3622822822826</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.732932932933092</v>
+        <v>6.784724724724889</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9916316316321</v>
+        <v>19.93983983984031</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.4760338678708855, 14.221486347130059]</t>
+          <t>[-1.8588684801569917, 14.604320959416164]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.108956252782286</v>
+        <v>0.1259369680076139</v>
       </c>
       <c r="O7" t="n">
-        <v>0.108956252782286</v>
+        <v>0.1259369680076139</v>
       </c>
       <c r="P7" t="n">
         <v>2.35855304323558</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, 5.484422009870469]</t>
+          <t>[-0.7736053981812709, 5.490711484652431]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1355831019938456</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1355831019938456</v>
+        <v>0.1363506659570199</v>
       </c>
       <c r="T7" t="n">
         <v>9.72022251892658</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.511785641543515, 13.928659396309644]</t>
+          <t>[5.511709064143499, 13.92873597370966]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.902433830431761e-05</v>
+        <v>2.903237451645779e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.902433830431761e-05</v>
+        <v>2.903237451645779e-05</v>
       </c>
       <c r="X7" t="n">
         <v>16.15903903903942</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.288778778778855</v>
+        <v>3.262882882882957</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.02929929929998</v>
+        <v>29.05519519519588</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.3951469098465026, 13.812938491973817]</t>
+          <t>[-0.28035782161705924, 13.698149403744374]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06357395869666771</v>
+        <v>0.05950393674221544</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06357395869666771</v>
+        <v>0.05950393674221544</v>
       </c>
       <c r="P8" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.47171060864711567, 3.4403427057329674]</t>
+          <t>[0.35850006257180755, 3.5535532518082755]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01095033289426883</v>
+        <v>0.01753603276474669</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01095033289426883</v>
+        <v>0.01753603276474669</v>
       </c>
       <c r="T8" t="n">
         <v>8.904971818027311</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.092489021505877, 12.717454614548746]</t>
+          <t>[5.088165465632999, 12.721778170421624]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.444259258016501e-05</v>
+        <v>2.487359201697181e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.444259258016501e-05</v>
+        <v>2.487359201697181e-05</v>
       </c>
       <c r="X8" t="n">
         <v>17.81637637637679</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.70494494494522</v>
+        <v>11.23881881881908</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.92780780780837</v>
+        <v>24.39393393393451</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.3741280593200056, 12.7217586624634]</t>
+          <t>[-0.2075329698319166, 12.55516357297531]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06398367038865316</v>
+        <v>0.05759479694050662</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06398367038865316</v>
+        <v>0.05759479694050662</v>
       </c>
       <c r="P9" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 3.4906585039886595]</t>
+          <t>[0.4842895582110396, 3.4277637561690435]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0136487085209076</v>
+        <v>0.01033234735789668</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0136487085209076</v>
+        <v>0.01033234735789668</v>
       </c>
       <c r="T9" t="n">
         <v>6.891913780464392</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[3.4110932778948477, 10.372734283033935]</t>
+          <t>[3.4104806688006075, 10.373346892128176]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0.0002422441177527546</v>
+        <v>0.0002427729825802416</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0002422441177527546</v>
+        <v>0.0002427729825802416</v>
       </c>
       <c r="X9" t="n">
         <v>17.81637637637679</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.49777777777805</v>
+        <v>11.75673673673701</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.13497497497554</v>
+        <v>23.87601601601657</v>
       </c>
     </row>
     <row r="10">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.7199709953569808, 14.222150354962857]</t>
+          <t>[-0.43819834371360145, 13.940377703319477]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07541308875262165</v>
+        <v>0.06502609333694287</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07541308875262165</v>
+        <v>0.06502609333694287</v>
       </c>
       <c r="P10" t="n">
         <v>1.352237078121733</v>
@@ -1315,14 +1315,14 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[4.610227996328369, 12.81486114793205]</t>
+          <t>[4.607957117728443, 12.817132026531976]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.72909759797691e-05</v>
+        <v>9.802755946219932e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>9.72909759797691e-05</v>
+        <v>9.802755946219932e-05</v>
       </c>
       <c r="X10" t="n">
         <v>20.30238238238286</v>
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[1.3805700443853723, 16.2008889326949]</t>
+          <t>[0.9728231882343081, 16.608635788845966]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.02113010238668411</v>
+        <v>0.02839389607092291</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02113010238668411</v>
+        <v>0.02839389607092291</v>
       </c>
       <c r="P11" t="n">
         <v>0.5975001042863477</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.20755266780472947, 1.4025528763774249]</t>
+          <t>[-0.2201316173686534, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1419357197691762</v>
+        <v>0.1480223613868898</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1419357197691762</v>
+        <v>0.1480223613868898</v>
       </c>
       <c r="T11" t="n">
         <v>9.960735567419059</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.008279532594768, 13.91319160224335]</t>
+          <t>[6.0036823647354485, 13.91778877010267]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.143718056434878e-06</v>
+        <v>7.285818530267107e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.143718056434878e-06</v>
+        <v>7.285818530267107e-06</v>
       </c>
       <c r="X11" t="n">
         <v>23.40988988989043</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.09521521521568</v>
+        <v>20.04342342342389</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.72456456456518</v>
+        <v>26.77635635635698</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.476004497284068, 12.921516058464507]</t>
+          <t>[-2.4481992991204162, 12.893710860300855]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1786195058833675</v>
+        <v>0.1770817550395329</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1786195058833675</v>
+        <v>0.1770817550395329</v>
       </c>
       <c r="P12" t="n">
         <v>0.3585000625718076</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.7736583788450435, 3.4906585039886586]</t>
+          <t>[-2.2830793458520424, 3.0000794709956575]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.8187248789934645</v>
+        <v>0.7858405161859077</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8187248789934645</v>
+        <v>0.7858405161859077</v>
       </c>
       <c r="T12" t="n">
         <v>8.537788289071436</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.445485625523846, 12.630090952619026]</t>
+          <t>[4.4426583988792485, 12.632918179263623]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0.0001236875072767596</v>
+        <v>0.0001248293319333627</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0001236875072767596</v>
+        <v>0.0001248293319333627</v>
       </c>
       <c r="X12" t="n">
         <v>21.15963963963971</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.973333333333366</v>
+        <v>11.72540540540544</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.34594594594605</v>
+        <v>30.59387387387397</v>
       </c>
     </row>
     <row r="13">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.16612312703337828, 13.442026483610556]</t>
+          <t>[-0.6115887532229856, 13.887492109800164]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.05561431441904729</v>
+        <v>0.07174513708916308</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05561431441904729</v>
+        <v>0.07174513708916308</v>
       </c>
       <c r="P13" t="n">
         <v>0.3836579616996545</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, 1.9120003337163105]</t>
+          <t>[-1.2956318050840787, 2.0629477284833877]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6156066229928951</v>
+        <v>0.6476236465242398</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6156066229928951</v>
+        <v>0.6476236465242398</v>
       </c>
       <c r="T13" t="n">
         <v>9.277011252994757</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.3148709064602215, 13.239151599529293]</t>
+          <t>[5.316533955896568, 13.237488550092948]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.354303029150628e-05</v>
+        <v>2.339047693489249e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.354303029150628e-05</v>
+        <v>2.339047693489249e-05</v>
       </c>
       <c r="X13" t="n">
         <v>21.06978978978985</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.61141141141146</v>
+        <v>15.07231231231236</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.52816816816825</v>
+        <v>27.06726726726735</v>
       </c>
     </row>
     <row r="14">
@@ -1631,51 +1631,51 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.47941862656526, 16.355828623208968]</t>
+          <t>[-0.5242170020780117, 16.40062699872172]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0639341405519267</v>
+        <v>0.06530031980009365</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0639341405519267</v>
+        <v>0.06530031980009365</v>
       </c>
       <c r="P14" t="n">
         <v>0.823921196436963</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.2705003962881176, 3.9183427891620437]</t>
+          <t>[-0.7736053981812692, 2.4214477910551953]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5944094201815537</v>
+        <v>0.3044612762310606</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5944094201815537</v>
+        <v>0.3044612762310606</v>
       </c>
       <c r="T14" t="n">
         <v>10.92237480812066</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.564110989370478, 15.280638626870838]</t>
+          <t>[6.56304953761796, 15.281700078623356]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.849340683874217e-06</v>
+        <v>7.881594782155332e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>7.849340683874217e-06</v>
+        <v>7.881594782155332e-06</v>
       </c>
       <c r="X14" t="n">
         <v>19.49741741741748</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.445885885885914</v>
+        <v>13.791951951952</v>
       </c>
       <c r="Z14" t="n">
-        <v>30.54894894894904</v>
+        <v>25.20288288288296</v>
       </c>
     </row>
     <row r="15">
@@ -1717,51 +1717,51 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.34596936915776233, 14.643612281458145]</t>
+          <t>[-0.2987573546493216, 14.596400266949704]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06106379566448394</v>
+        <v>0.05950444604540617</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06106379566448394</v>
+        <v>0.05950444604540617</v>
       </c>
       <c r="P15" t="n">
         <v>1.415131825941348</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.06918422260157708, 2.899447874484273]</t>
+          <t>[0.018868424345884094, 2.8113952275368117]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06118093329988983</v>
+        <v>0.04710888154977932</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06118093329988983</v>
+        <v>0.04710888154977932</v>
       </c>
       <c r="T15" t="n">
         <v>9.144313436907229</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[4.979105169123802, 13.309521704690656]</t>
+          <t>[4.977570689176456, 13.311056184638002]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>6.128749666189925e-05</v>
+        <v>6.160987053194233e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>6.128749666189925e-05</v>
+        <v>6.160987053194233e-05</v>
       </c>
       <c r="X15" t="n">
         <v>17.385945945946</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.08480480480484</v>
+        <v>12.39927927927932</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.68708708708716</v>
+        <v>22.37261261261268</v>
       </c>
     </row>
   </sheetData>
